--- a/LF/TAS/Mozambique/November 2021/mz_lf_tas2_3_resultat_fts_202111.xlsx
+++ b/LF/TAS/Mozambique/November 2021/mz_lf_tas2_3_resultat_fts_202111.xlsx
@@ -811,7 +811,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) TAS2 FL - 3. Resultados FTS V3  (Tete Jan 2021) V2</t>
+    <t>(Nov 2021) TAS2 FL - 3. Resultados FTS V2</t>
   </si>
   <si>
     <t>mz_lf_tas2_3_resultat_fts_202111_v2</t>
@@ -825,9 +825,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -879,8 +879,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,11 +909,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,13 +945,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,8 +970,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,13 +987,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -968,16 +994,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,33 +1016,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,85 +1098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,37 +1170,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1287,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,8 +1310,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,6 +1346,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1345,186 +1375,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7013,7 +7013,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
